--- a/CONTROLE_VENDAS_EXPERT/3_CONTROLE DE VENDAS/4_1_meta_2018.xlsx
+++ b/CONTROLE_VENDAS_EXPERT/3_CONTROLE DE VENDAS/4_1_meta_2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GRAVACOES_MAIKE\PROFESSOR\2_MODULO  - POWER_BI - Essentials\AULA - 3_METAS_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\0_UDEMY\POWERBI_SQLSERVER\dashboards\CONTROLE_VENDAS_EXPERT\3_CONTROLE DE VENDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821016E-2DDA-4CD5-970F-5995EFDC3D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF5291-04F1-4599-8DAD-9E313072DCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2535" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AFB32C85-0B5C-4D3B-A543-083C28BEB283}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{AFB32C85-0B5C-4D3B-A543-083C28BEB283}"/>
   </bookViews>
   <sheets>
     <sheet name="ENUNCIADO" sheetId="3" r:id="rId1"/>
@@ -1200,7 +1200,9 @@
   </sheetPr>
   <dimension ref="A1:F1819"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1052" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1064" sqref="B1064"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22457,7 +22459,7 @@
         <v>29</v>
       </c>
       <c r="B1063" s="4">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="C1063" s="4" t="s">
         <v>26</v>
